--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,11 @@
     <sheet name="Hidden_2_Tabla_395424" sheetId="4" r:id="rId4"/>
     <sheet name="Hidden_3_Tabla_395424" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="diciembre">[1]Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_1_Tabla_3954246">Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_2_Tabla_39542410">Hidden_2_Tabla_395424!$A$1:$A$41</definedName>
     <definedName name="Hidden_3_Tabla_39542417">Hidden_3_Tabla_395424!$A$1:$A$32</definedName>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="223">
   <si>
     <t>46671</t>
   </si>
@@ -625,9 +629,6 @@
     <t>Institucional</t>
   </si>
   <si>
-    <t>Canal de comunicación permanenete por lo que no requiere convocatoria</t>
-  </si>
-  <si>
     <t>Espacios de atención ciudadana mediante redes sociales Facebook para atender sus quejas o sugerencias</t>
   </si>
   <si>
@@ -637,6 +638,9 @@
     <t>Mediante Redes Sociales Facebook</t>
   </si>
   <si>
+    <t>Los mecanismos de participación ciudadana son permanentes pór lo que no se requiere convocatoria</t>
+  </si>
+  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
@@ -664,9 +668,6 @@
     <t>Mediante una llamada telefónica</t>
   </si>
   <si>
-    <t>Los mecanismos de participación ciudadana son permanentes pór lo que no se requiere convocatoria</t>
-  </si>
-  <si>
     <t>Ma. del Carmen</t>
   </si>
   <si>
@@ -685,6 +686,9 @@
     <t>Sin número</t>
   </si>
   <si>
+    <t>Rancho Luna</t>
+  </si>
+  <si>
     <t>Rancho Luna,  Ex Hda. Sta Barbara</t>
   </si>
   <si>
@@ -698,9 +702,6 @@
   </si>
   <si>
     <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
-  </si>
-  <si>
-    <t>Rancho Luna</t>
   </si>
 </sst>
 </file>
@@ -774,16 +775,20 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -791,7 +796,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -799,33 +803,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,6 +839,158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Reporte de Formatos"/>
+      <sheetName val="Tabla_395424"/>
+      <sheetName val="Hidden_1_Tabla_395424"/>
+      <sheetName val="Hidden_2_Tabla_395424"/>
+      <sheetName val="Hidden_3_Tabla_395424"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Carretera</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Privada</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Eje vial</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Circunvalación</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Brecha</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Diagonal</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Calle</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Corredor</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Circuito</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Pasaje</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Vereda</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Calzada</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Viaducto</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Prolongación</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Boulevard</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Peatonal</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Retorno</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Camino</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Callejón</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Cerrada</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Ampliación</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Continuación</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Terracería</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Andador</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Periférico</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Avenida</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1268,7 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" customWidth="1"/>
     <col min="6" max="6" width="51" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -1133,7 +1282,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.5703125" customWidth="1"/>
+    <col min="19" max="19" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1142,42 +1291,38 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1298,27 +1443,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1379,15 +1524,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2020</v>
       </c>
-      <c r="B8" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44104</v>
+      <c r="B8" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44196</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>194</v>
@@ -1401,52 +1546,50 @@
       <c r="G8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M8" s="5">
-        <v>44013</v>
-      </c>
-      <c r="N8" s="5">
-        <v>44104</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="M8" s="4">
+        <v>44105</v>
+      </c>
+      <c r="N8" s="4">
+        <v>44196</v>
+      </c>
+      <c r="O8" s="3">
         <v>1</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
+        <v>44470</v>
+      </c>
+      <c r="R8" s="4">
         <v>44114</v>
       </c>
-      <c r="R8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="S8" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>2020</v>
       </c>
-      <c r="B9" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44104</v>
+      <c r="B9" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44196</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>202</v>
@@ -1460,14 +1603,12 @@
       <c r="G9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>198</v>
-      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
         <v>203</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>204</v>
@@ -1475,37 +1616,37 @@
       <c r="L9" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="M9" s="5">
-        <v>44013</v>
-      </c>
-      <c r="N9" s="5">
+      <c r="M9" s="4">
+        <v>44105</v>
+      </c>
+      <c r="N9" s="4">
         <v>44104</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>1</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="Q9" s="5">
-        <v>44114</v>
-      </c>
-      <c r="R9" s="5">
-        <v>44114</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="Q9" s="4">
+        <v>44470</v>
+      </c>
+      <c r="R9" s="4">
+        <v>44470</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2020</v>
       </c>
-      <c r="B10" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44104</v>
+      <c r="B10" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44196</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>205</v>
@@ -1519,9 +1660,7 @@
       <c r="G10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>198</v>
-      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
         <v>203</v>
       </c>
@@ -1534,37 +1673,37 @@
       <c r="L10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M10" s="5">
-        <v>44013</v>
-      </c>
-      <c r="N10" s="5">
-        <v>44104</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="M10" s="4">
+        <v>44105</v>
+      </c>
+      <c r="N10" s="4">
+        <v>44196</v>
+      </c>
+      <c r="O10" s="3">
         <v>1</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="Q10" s="5">
-        <v>44114</v>
-      </c>
-      <c r="R10" s="5">
-        <v>44114</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="Q10" s="4">
+        <v>44470</v>
+      </c>
+      <c r="R10" s="4">
+        <v>44470</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>2020</v>
       </c>
-      <c r="B11" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44104</v>
+      <c r="B11" s="4">
+        <v>44105</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44196</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>208</v>
@@ -1578,9 +1717,7 @@
       <c r="G11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>198</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
         <v>209</v>
       </c>
@@ -1593,26 +1730,26 @@
       <c r="L11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M11" s="5">
-        <v>44013</v>
-      </c>
-      <c r="N11" s="5">
-        <v>44104</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="M11" s="4">
+        <v>44105</v>
+      </c>
+      <c r="N11" s="4">
+        <v>44196</v>
+      </c>
+      <c r="O11" s="6">
         <v>1</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="Q11" s="5">
-        <v>44114</v>
-      </c>
-      <c r="R11" s="5">
-        <v>44114</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>211</v>
+      <c r="Q11" s="4">
+        <v>44470</v>
+      </c>
+      <c r="R11" s="4">
+        <v>44470</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1620,10 +1757,10 @@
     <mergeCell ref="A6:S6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1635,7 +1772,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,79 +2003,82 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>8</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="7">
         <v>83</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="7">
         <v>13</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="7">
         <v>43830</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+      <formula1>diciembre</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G114">
       <formula1>Hidden_1_Tabla_3954246</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K114">
       <formula1>Hidden_2_Tabla_39542410</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R114">
       <formula1>Hidden_3_Tabla_39542417</formula1>
     </dataValidation>
   </dataValidations>
@@ -1950,137 +2090,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2094,213 +2239,216 @@
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection sqref="A1:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="9" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="9" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="9" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="9" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2313,167 +2461,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="9" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="9" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="9" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="9" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="9" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="9" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="8" t="s">
         <v>192</v>
       </c>
     </row>

--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -1258,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="8" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="4">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>194</v>
@@ -1560,10 +1560,10 @@
         <v>194</v>
       </c>
       <c r="M8" s="4">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="N8" s="4">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
@@ -1572,10 +1572,10 @@
         <v>193</v>
       </c>
       <c r="Q8" s="4">
-        <v>44470</v>
+        <v>44298</v>
       </c>
       <c r="R8" s="4">
-        <v>44114</v>
+        <v>44298</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>201</v>
@@ -1583,13 +1583,13 @@
     </row>
     <row r="9" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="4">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C9" s="4">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>202</v>
@@ -1617,10 +1617,10 @@
         <v>202</v>
       </c>
       <c r="M9" s="4">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="N9" s="4">
-        <v>44104</v>
+        <v>44286</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
@@ -1629,10 +1629,10 @@
         <v>193</v>
       </c>
       <c r="Q9" s="4">
-        <v>44470</v>
+        <v>44298</v>
       </c>
       <c r="R9" s="4">
-        <v>44470</v>
+        <v>44298</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>201</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="10" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="4">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C10" s="4">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>205</v>
@@ -1674,10 +1674,10 @@
         <v>205</v>
       </c>
       <c r="M10" s="4">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="N10" s="4">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
@@ -1686,10 +1686,10 @@
         <v>193</v>
       </c>
       <c r="Q10" s="4">
-        <v>44470</v>
+        <v>44298</v>
       </c>
       <c r="R10" s="4">
-        <v>44470</v>
+        <v>44298</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>201</v>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="11" spans="1:19" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B11" s="4">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C11" s="4">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>208</v>
@@ -1731,10 +1731,10 @@
         <v>208</v>
       </c>
       <c r="M11" s="4">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="N11" s="4">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="O11" s="6">
         <v>1</v>
@@ -1743,10 +1743,10 @@
         <v>193</v>
       </c>
       <c r="Q11" s="4">
-        <v>44470</v>
+        <v>44298</v>
       </c>
       <c r="R11" s="4">
-        <v>44470</v>
+        <v>44298</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>201</v>
@@ -1771,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="R3" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\2do Trimestre UPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -614,58 +614,58 @@
     <t>Baja California</t>
   </si>
   <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
+  </si>
+  <si>
+    <t>Que la comunidad universitaria cuente con un medio de comunicación, donde exponga sus quejas y sugerencias sobre el desempeño de los procesos de la universidad, incluyendo a los funcionarios públicos e infraestructura.</t>
+  </si>
+  <si>
+    <t>Institucional</t>
+  </si>
+  <si>
+    <t>Espacios de atención ciudadana mediante redes sociales Facebook para atender sus quejas o sugerencias</t>
+  </si>
+  <si>
+    <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
+  </si>
+  <si>
+    <t>Mediante Redes Sociales Facebook</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Espacios de atención ciudadana mediante un correo electrónico para atender sus quejas o sugerencias</t>
+  </si>
+  <si>
+    <t>Mediante un correo electrónico</t>
+  </si>
+  <si>
+    <t>Buzón de quejas y sugerencias</t>
+  </si>
+  <si>
+    <t>Realizar su queja o sugerencia en papel y depositarla en los buzones correspondientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escrito en Buzón </t>
+  </si>
+  <si>
+    <t>Llamada telefónica</t>
+  </si>
+  <si>
+    <t>Espacios de comunicación de los funcionarios públicos y la ciudadania atender sus dudas y comentarios o sugerencias.</t>
+  </si>
+  <si>
+    <t>Mediante una llamada telefónica</t>
+  </si>
+  <si>
     <t>Subdirección de Calidad (UPP)</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
-  </si>
-  <si>
-    <t>Que la comunidad universitaria cuente con un medio de comunicación, donde exponga sus quejas y sugerencias sobre el desempeño de los procesos de la universidad, incluyendo a los funcionarios públicos e infraestructura.</t>
-  </si>
-  <si>
-    <t>Institucional</t>
-  </si>
-  <si>
-    <t>Espacios de atención ciudadana mediante redes sociales Facebook para atender sus quejas o sugerencias</t>
-  </si>
-  <si>
-    <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
-  </si>
-  <si>
-    <t>Mediante Redes Sociales Facebook</t>
-  </si>
-  <si>
     <t>Los mecanismos de participación ciudadana son permanentes pór lo que no se requiere convocatoria</t>
-  </si>
-  <si>
-    <t>Correo electrónico</t>
-  </si>
-  <si>
-    <t>Espacios de atención ciudadana mediante un correo electrónico para atender sus quejas o sugerencias</t>
-  </si>
-  <si>
-    <t>Mediante un correo electrónico</t>
-  </si>
-  <si>
-    <t>Buzón de quejas y sugerencias</t>
-  </si>
-  <si>
-    <t>Realizar su queja o sugerencia en papel y depositarla en los buzones correspondientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escrito en Buzón </t>
-  </si>
-  <si>
-    <t>Llamada telefónica</t>
-  </si>
-  <si>
-    <t>Espacios de comunicación de los funcionarios públicos y la ciudadania atender sus dudas y comentarios o sugerencias.</t>
-  </si>
-  <si>
-    <t>Mediante una llamada telefónica</t>
   </si>
   <si>
     <t>Ma. del Carmen</t>
@@ -721,13 +721,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -748,7 +746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -771,24 +769,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -803,27 +788,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1258,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,8 +1245,8 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
@@ -1282,7 +1259,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.85546875" customWidth="1"/>
+    <col min="19" max="19" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1291,38 +1268,38 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1443,27 +1420,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1524,232 +1501,232 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="7" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
+      <c r="L8" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="M8" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="N8" s="4">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>193</v>
+      <c r="P8" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="Q8" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="R8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2021</v>
       </c>
       <c r="B9" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C9" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D9" s="7" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>202</v>
+      <c r="L9" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="M9" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="N9" s="4">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>193</v>
+      <c r="P9" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="Q9" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="R9" s="4">
-        <v>44298</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2021</v>
       </c>
       <c r="B10" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C10" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D10" s="7" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="J10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>205</v>
-      </c>
       <c r="M10" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="N10" s="4">
-        <v>44286</v>
+        <v>44377</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>193</v>
+      <c r="P10" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="Q10" s="4">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="R10" s="4">
-        <v>44298</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44386</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2021</v>
       </c>
       <c r="B11" s="4">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C11" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D11" s="7" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
+      <c r="L11" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M11" s="4">
+        <v>44287</v>
+      </c>
+      <c r="N11" s="4">
+        <v>44377</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="4">
+        <v>44386</v>
+      </c>
+      <c r="R11" s="4">
+        <v>44386</v>
+      </c>
+      <c r="S11" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M11" s="4">
-        <v>44197</v>
-      </c>
-      <c r="N11" s="4">
-        <v>44286</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>44298</v>
-      </c>
-      <c r="R11" s="4">
-        <v>44298</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -1771,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView topLeftCell="R3" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2000,86 +1977,86 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>8</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>83</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="5">
         <v>13</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <v>43830</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="5" t="s">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G201">
+      <formula1>Hidden_1_Tabla_3954246</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K201">
+      <formula1>Hidden_2_Tabla_39542410</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R201">
+      <formula1>Hidden_3_Tabla_39542417</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
       <formula1>diciembre</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G114">
-      <formula1>Hidden_1_Tabla_3954246</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K114">
-      <formula1>Hidden_2_Tabla_39542410</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R114">
-      <formula1>Hidden_3_Tabla_39542417</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2090,142 +2067,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2238,217 +2210,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2461,172 +2428,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" t="s">
         <v>192</v>
       </c>
     </row>

--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\2do Trimestre UPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,16 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla_395424" sheetId="2" r:id="rId2"/>
-    <sheet name="Hidden_1_Tabla_395424" sheetId="3" r:id="rId3"/>
-    <sheet name="Hidden_2_Tabla_395424" sheetId="4" r:id="rId4"/>
-    <sheet name="Hidden_3_Tabla_395424" sheetId="5" r:id="rId5"/>
+    <sheet name="Hidden_1_Tabla_395424" sheetId="3" r:id="rId2"/>
+    <sheet name="Hidden_2_Tabla_395424" sheetId="4" r:id="rId3"/>
+    <sheet name="Hidden_3_Tabla_395424" sheetId="5" r:id="rId4"/>
+    <sheet name="Tabla_395424" sheetId="2" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="diciembre">[1]Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_1_Tabla_3954246">Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_2_Tabla_39542410">Hidden_2_Tabla_395424!$A$1:$A$41</definedName>
     <definedName name="Hidden_3_Tabla_39542417">Hidden_3_Tabla_395424!$A$1:$A$32</definedName>
@@ -32,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="211">
   <si>
     <t>46671</t>
   </si>
@@ -614,6 +610,9 @@
     <t>Baja California</t>
   </si>
   <si>
+    <t>Subdirección de Calidad (UPP)</t>
+  </si>
+  <si>
     <t>Facebook</t>
   </si>
   <si>
@@ -662,46 +661,7 @@
     <t>Mediante una llamada telefónica</t>
   </si>
   <si>
-    <t>Subdirección de Calidad (UPP)</t>
-  </si>
-  <si>
     <t>Los mecanismos de participación ciudadana son permanentes pór lo que no se requiere convocatoria</t>
-  </si>
-  <si>
-    <t>Ma. del Carmen</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Madrigal</t>
-  </si>
-  <si>
-    <t>calidad@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Sin calle</t>
-  </si>
-  <si>
-    <t>Sin número</t>
-  </si>
-  <si>
-    <t>Rancho Luna</t>
-  </si>
-  <si>
-    <t>Rancho Luna,  Ex Hda. Sta Barbara</t>
-  </si>
-  <si>
-    <t>Zempoala</t>
-  </si>
-  <si>
-    <t>No existe</t>
-  </si>
-  <si>
-    <t>7715477510 ext. 2265</t>
-  </si>
-  <si>
-    <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
   </si>
 </sst>
 </file>
@@ -721,11 +681,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -773,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -787,20 +749,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,158 +784,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Reporte de Formatos"/>
-      <sheetName val="Tabla_395424"/>
-      <sheetName val="Hidden_1_Tabla_395424"/>
-      <sheetName val="Hidden_2_Tabla_395424"/>
-      <sheetName val="Hidden_3_Tabla_395424"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Carretera</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Privada</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Eje vial</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Circunvalación</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Brecha</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Diagonal</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Calle</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Corredor</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Circuito</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Pasaje</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Vereda</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Calzada</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Viaducto</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Prolongación</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Boulevard</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Peatonal</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Retorno</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Camino</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Callejón</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Cerrada</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Ampliación</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Continuación</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Terracería</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Andador</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Periférico</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Avenida</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1061,7 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" customWidth="1"/>
     <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -1259,7 +1075,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.140625" customWidth="1"/>
+    <col min="19" max="19" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1284,7 +1100,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1295,11 +1111,11 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1501,231 +1317,231 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="4">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="5" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>193</v>
+      <c r="K8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="M8" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="N8" s="4">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>209</v>
+      <c r="P8" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="Q8" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="R8" s="4">
-        <v>44386</v>
-      </c>
-      <c r="S8" s="6" t="s">
+        <v>44480</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2021</v>
       </c>
       <c r="B9" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C9" s="4">
-        <v>44377</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="G9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="M9" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="N9" s="4">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>209</v>
+      <c r="P9" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="Q9" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="R9" s="4">
-        <v>44386</v>
-      </c>
-      <c r="S9" s="6" t="s">
+        <v>44480</v>
+      </c>
+      <c r="S9" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2021</v>
       </c>
       <c r="B10" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C10" s="4">
-        <v>44377</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="G10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="M10" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="N10" s="4">
-        <v>44377</v>
+        <v>44469</v>
       </c>
       <c r="O10" s="3">
         <v>1</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>44480</v>
+      </c>
+      <c r="R10" s="4">
+        <v>44480</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="Q10" s="4">
-        <v>44386</v>
-      </c>
-      <c r="R10" s="4">
-        <v>44386</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44287</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44377</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="L11" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="M11" s="4">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="N11" s="4">
-        <v>44377</v>
-      </c>
-      <c r="O11" s="3">
+        <v>44469</v>
+      </c>
+      <c r="O11" s="5">
         <v>1</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>209</v>
+      <c r="P11" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="Q11" s="4">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="R11" s="4">
-        <v>44386</v>
-      </c>
-      <c r="S11" s="6" t="s">
+        <v>44480</v>
+      </c>
+      <c r="S11" s="7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1746,11 +1562,543 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1976,77 +2324,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="M4" s="5">
-        <v>8</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O4" s="5">
-        <v>83</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>13</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="S4" s="5">
-        <v>43830</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G201">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201">
       <formula1>Hidden_1_Tabla_3954246</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K201">
@@ -2055,544 +2335,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R201">
       <formula1>Hidden_3_Tabla_39542417</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
-      <formula1>diciembre</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -5,20 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP 3ER TRIMESTRE 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
-    <sheet name="Hidden_1_Tabla_395424" sheetId="3" r:id="rId2"/>
-    <sheet name="Hidden_2_Tabla_395424" sheetId="4" r:id="rId3"/>
-    <sheet name="Hidden_3_Tabla_395424" sheetId="5" r:id="rId4"/>
-    <sheet name="Tabla_395424" sheetId="2" r:id="rId5"/>
+    <sheet name="Tabla_395424" sheetId="2" r:id="rId2"/>
+    <sheet name="Hidden_1_Tabla_395424" sheetId="3" r:id="rId3"/>
+    <sheet name="Hidden_2_Tabla_395424" sheetId="4" r:id="rId4"/>
+    <sheet name="Hidden_3_Tabla_395424" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="diciembre">[1]Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_1_Tabla_3954246">Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_2_Tabla_39542410">Hidden_2_Tabla_395424!$A$1:$A$41</definedName>
     <definedName name="Hidden_3_Tabla_39542417">Hidden_3_Tabla_395424!$A$1:$A$32</definedName>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="223">
   <si>
     <t>46671</t>
   </si>
@@ -662,6 +666,42 @@
   </si>
   <si>
     <t>Los mecanismos de participación ciudadana son permanentes pór lo que no se requiere convocatoria</t>
+  </si>
+  <si>
+    <t>Ma. del Carmen</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madrigal</t>
+  </si>
+  <si>
+    <t>calidad@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Sin calle</t>
+  </si>
+  <si>
+    <t>Sin número</t>
+  </si>
+  <si>
+    <t>Rancho Luna</t>
+  </si>
+  <si>
+    <t>Rancho Luna,  Ex Hda. Sta Barbara</t>
+  </si>
+  <si>
+    <t>Zempoala</t>
+  </si>
+  <si>
+    <t>No existe</t>
+  </si>
+  <si>
+    <t>7715477510 ext. 2265</t>
+  </si>
+  <si>
+    <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
   </si>
 </sst>
 </file>
@@ -737,9 +777,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -757,6 +794,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -784,6 +824,158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Reporte de Formatos"/>
+      <sheetName val="Tabla_395424"/>
+      <sheetName val="Hidden_1_Tabla_395424"/>
+      <sheetName val="Hidden_2_Tabla_395424"/>
+      <sheetName val="Hidden_3_Tabla_395424"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Carretera</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Privada</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Eje vial</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Circunvalación</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Brecha</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Diagonal</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Calle</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Corredor</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Circuito</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Pasaje</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Vereda</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Calzada</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Viaducto</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Prolongación</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Boulevard</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Peatonal</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Retorno</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Camino</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Callejón</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Cerrada</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Ampliación</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Continuación</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Terracería</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Andador</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Periférico</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Avenida</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1051,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1259,289 +1451,289 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>44378</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>44469</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>44378</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>44469</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>1</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>44480</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>44480</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>2021</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>44378</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>44469</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>44378</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>44469</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>1</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>44480</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>44480</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>2021</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>44378</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>44469</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>44378</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>44469</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>1</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>44480</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>44480</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>2021</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>44378</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>44469</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>44378</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>44469</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>1</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>44480</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>44480</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="6" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1562,543 +1754,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2257,85 +1917,690 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="V3" s="7" t="s">
         <v>96</v>
       </c>
     </row>
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" s="5">
+        <v>8</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="5">
+        <v>83</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>13</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="S4" s="5">
+        <v>43830</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+      <formula1>diciembre</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G83">
       <formula1>Hidden_1_Tabla_3954246</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K83">
       <formula1>Hidden_2_Tabla_39542410</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R83">
       <formula1>Hidden_3_Tabla_39542417</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\UPP 3ER TRIMESTRE 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\OBSERVACIONES SIPOT ACTUALIZACIÓN 3ER TRIMESTRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\OBSERVACIONES SIPOT ACTUALIZACIÓN 3ER TRIMESTRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,12 @@
     <sheet name="Hidden_2_Tabla_395424" sheetId="4" r:id="rId4"/>
     <sheet name="Hidden_3_Tabla_395424" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="diciembre">[1]Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_1_Tabla_3954246">Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_2_Tabla_39542410">Hidden_2_Tabla_395424!$A$1:$A$41</definedName>
     <definedName name="Hidden_3_Tabla_39542417">Hidden_3_Tabla_395424!$A$1:$A$32</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -614,67 +610,64 @@
     <t>Baja California</t>
   </si>
   <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
+  </si>
+  <si>
+    <t>Que la comunidad universitaria cuente con un medio de comunicación, donde exponga sus quejas y sugerencias sobre el desempeño de los procesos de la universidad, incluyendo a los funcionarios públicos e infraestructura.</t>
+  </si>
+  <si>
+    <t>Institucional</t>
+  </si>
+  <si>
+    <t>Espacios de atención ciudadana mediante redes sociales Facebook para atender sus quejas o sugerencias</t>
+  </si>
+  <si>
+    <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
+  </si>
+  <si>
+    <t>Mediante Redes Sociales Facebook</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Espacios de atención ciudadana mediante un correo electrónico para atender sus quejas o sugerencias</t>
+  </si>
+  <si>
+    <t>Mediante un correo electrónico</t>
+  </si>
+  <si>
+    <t>Buzón de quejas y sugerencias</t>
+  </si>
+  <si>
+    <t>Realizar su queja o sugerencia en papel y depositarla en los buzones correspondientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escrito en Buzón </t>
+  </si>
+  <si>
+    <t>Llamada telefónica</t>
+  </si>
+  <si>
+    <t>Espacios de comunicación de los funcionarios públicos y la ciudadania atender sus dudas y comentarios o sugerencias.</t>
+  </si>
+  <si>
+    <t>Mediante una llamada telefónica</t>
+  </si>
+  <si>
     <t>Subdirección de Calidad (UPP)</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
-  </si>
-  <si>
-    <t>Que la comunidad universitaria cuente con un medio de comunicación, donde exponga sus quejas y sugerencias sobre el desempeño de los procesos de la universidad, incluyendo a los funcionarios públicos e infraestructura.</t>
-  </si>
-  <si>
-    <t>Institucional</t>
-  </si>
-  <si>
-    <t>Espacios de atención ciudadana mediante redes sociales Facebook para atender sus quejas o sugerencias</t>
-  </si>
-  <si>
-    <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
-  </si>
-  <si>
-    <t>Mediante Redes Sociales Facebook</t>
-  </si>
-  <si>
-    <t>Correo electrónico</t>
-  </si>
-  <si>
-    <t>Espacios de atención ciudadana mediante un correo electrónico para atender sus quejas o sugerencias</t>
-  </si>
-  <si>
-    <t>Mediante un correo electrónico</t>
-  </si>
-  <si>
-    <t>Buzón de quejas y sugerencias</t>
-  </si>
-  <si>
-    <t>Realizar su queja o sugerencia en papel y depositarla en los buzones correspondientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escrito en Buzón </t>
-  </si>
-  <si>
-    <t>Llamada telefónica</t>
-  </si>
-  <si>
-    <t>Espacios de comunicación de los funcionarios públicos y la ciudadania atender sus dudas y comentarios o sugerencias.</t>
-  </si>
-  <si>
-    <t>Mediante una llamada telefónica</t>
-  </si>
-  <si>
-    <t>Los mecanismos de participación ciudadana son permanentes pór lo que no se requiere convocatoria</t>
-  </si>
-  <si>
     <t>Ma. del Carmen</t>
   </si>
   <si>
     <t>Rivera</t>
   </si>
   <si>
-    <t xml:space="preserve"> Madrigal</t>
+    <t> Madrigal</t>
   </si>
   <si>
     <t>calidad@upp.edu.mx</t>
@@ -689,7 +682,7 @@
     <t>Rancho Luna</t>
   </si>
   <si>
-    <t>Rancho Luna,  Ex Hda. Sta Barbara</t>
+    <t>Rancho Luna,  Ex Hda. Sta Barbara</t>
   </si>
   <si>
     <t>Zempoala</t>
@@ -702,6 +695,9 @@
   </si>
   <si>
     <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
+  </si>
+  <si>
+    <t>Los mecanismos de participación ciudadana son permanentes pór lo que no se requiere convocatoria.</t>
   </si>
 </sst>
 </file>
@@ -721,13 +717,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -775,8 +769,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -786,29 +783,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,158 +810,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Reporte de Formatos"/>
-      <sheetName val="Tabla_395424"/>
-      <sheetName val="Hidden_1_Tabla_395424"/>
-      <sheetName val="Hidden_2_Tabla_395424"/>
-      <sheetName val="Hidden_3_Tabla_395424"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Carretera</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Privada</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Eje vial</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Circunvalación</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Brecha</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Diagonal</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Calle</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Corredor</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Circuito</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Pasaje</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Vereda</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Calzada</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Viaducto</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Prolongación</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Boulevard</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Peatonal</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Retorno</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Camino</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Callejón</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Cerrada</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Ampliación</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Continuación</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Terracería</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Andador</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Periférico</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Avenida</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="P9" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1087,7 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -1267,7 +1101,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37" customWidth="1"/>
+    <col min="19" max="19" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1126,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1303,11 +1137,11 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1451,290 +1285,290 @@
       <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:19" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="3">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M8" s="4">
+        <v>44470</v>
+      </c>
+      <c r="N8" s="4">
+        <v>44561</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="R8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="M8" s="3">
-        <v>44378</v>
-      </c>
-      <c r="N8" s="3">
-        <v>44469</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="F9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M9" s="4">
+        <v>44470</v>
+      </c>
+      <c r="N9" s="4">
+        <v>44561</v>
+      </c>
+      <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>44480</v>
-      </c>
-      <c r="R8" s="3">
-        <v>44480</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="P9" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="R9" s="4">
+        <v>44571</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2021</v>
       </c>
-      <c r="B9" s="3">
-        <v>44378</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B10" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="J10" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M10" s="4">
+        <v>44470</v>
+      </c>
+      <c r="N10" s="4">
+        <v>44561</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>44571</v>
+      </c>
+      <c r="R10" s="4">
+        <v>44571</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="M9" s="3">
-        <v>44378</v>
-      </c>
-      <c r="N9" s="3">
-        <v>44469</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="M11" s="4">
+        <v>44470</v>
+      </c>
+      <c r="N11" s="4">
+        <v>44561</v>
+      </c>
+      <c r="O11" s="3">
         <v>1</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>44480</v>
-      </c>
-      <c r="R9" s="3">
-        <v>44480</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44378</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="M10" s="3">
-        <v>44378</v>
-      </c>
-      <c r="N10" s="3">
-        <v>44469</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>44480</v>
-      </c>
-      <c r="R10" s="3">
-        <v>44480</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="3">
-        <v>44378</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="P11" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M11" s="3">
-        <v>44378</v>
-      </c>
-      <c r="N11" s="3">
-        <v>44469</v>
-      </c>
-      <c r="O11" s="4">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>44480</v>
-      </c>
-      <c r="R11" s="3">
-        <v>44480</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>210</v>
+      <c r="Q11" s="4">
+        <v>44571</v>
+      </c>
+      <c r="R11" s="4">
+        <v>44571</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1756,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,157 +1751,155 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="7">
+        <v>8</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="M4" s="5">
-        <v>8</v>
-      </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="7">
+        <v>83</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="O4" s="5">
-        <v>83</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="7">
+        <v>13</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="S4" s="7">
+        <v>43830</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="Q4" s="5">
-        <v>13</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="S4" s="5">
-        <v>43830</v>
-      </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>222</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
-      <formula1>diciembre</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G83">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201">
       <formula1>Hidden_1_Tabla_3954246</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K83">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K201">
       <formula1>Hidden_2_Tabla_39542410</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R83">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R201">
       <formula1>Hidden_3_Tabla_39542417</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,12 +13,16 @@
     <sheet name="Hidden_2_Tabla_395424" sheetId="4" r:id="rId4"/>
     <sheet name="Hidden_3_Tabla_395424" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="diciembre">[1]Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_1_Tabla_3954246">Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_2_Tabla_39542410">Hidden_2_Tabla_395424!$A$1:$A$41</definedName>
     <definedName name="Hidden_3_Tabla_39542417">Hidden_3_Tabla_395424!$A$1:$A$32</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -610,6 +609,45 @@
     <t>Baja California</t>
   </si>
   <si>
+    <t>Subdirección de Calidad (UPP)</t>
+  </si>
+  <si>
+    <t>Ma. del Carmen</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Madrigal</t>
+  </si>
+  <si>
+    <t>calidad@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Sin calle</t>
+  </si>
+  <si>
+    <t>Sin número</t>
+  </si>
+  <si>
+    <t>Rancho Luna</t>
+  </si>
+  <si>
+    <t>Rancho Luna,  Ex Hda. Sta Barbara</t>
+  </si>
+  <si>
+    <t>Zempoala</t>
+  </si>
+  <si>
+    <t>No existe</t>
+  </si>
+  <si>
+    <t>7715477510 ext. 2265</t>
+  </si>
+  <si>
+    <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
+  </si>
+  <si>
     <t>Facebook</t>
   </si>
   <si>
@@ -658,53 +696,14 @@
     <t>Mediante una llamada telefónica</t>
   </si>
   <si>
-    <t>Subdirección de Calidad (UPP)</t>
-  </si>
-  <si>
-    <t>Ma. del Carmen</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t> Madrigal</t>
-  </si>
-  <si>
-    <t>calidad@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Sin calle</t>
-  </si>
-  <si>
-    <t>Sin número</t>
-  </si>
-  <si>
-    <t>Rancho Luna</t>
-  </si>
-  <si>
-    <t>Rancho Luna,  Ex Hda. Sta Barbara</t>
-  </si>
-  <si>
-    <t>Zempoala</t>
-  </si>
-  <si>
-    <t>No existe</t>
-  </si>
-  <si>
-    <t>7715477510 ext. 2265</t>
-  </si>
-  <si>
-    <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
-  </si>
-  <si>
-    <t>Los mecanismos de participación ciudadana son permanentes pór lo que no se requiere convocatoria.</t>
+    <t>Los mecanismos de participación ciudadana son permanentes pór lo que no se requiere convocatoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -717,11 +716,19 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -742,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -765,11 +772,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -777,24 +795,36 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,6 +840,158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Reporte de Formatos"/>
+      <sheetName val="Tabla_395424"/>
+      <sheetName val="Hidden_1_Tabla_395424"/>
+      <sheetName val="Hidden_2_Tabla_395424"/>
+      <sheetName val="Hidden_3_Tabla_395424"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Carretera</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Privada</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Eje vial</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Circunvalación</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Brecha</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Diagonal</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Calle</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Corredor</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Circuito</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Pasaje</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Vereda</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Calzada</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Viaducto</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Prolongación</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Boulevard</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Peatonal</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Retorno</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Camino</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Callejón</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Cerrada</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Ampliación</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Continuación</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Terracería</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Andador</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Periférico</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Avenida</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,7 +1249,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1077,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P9" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1269,7 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
     <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -1101,7 +1283,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.7109375" customWidth="1"/>
+    <col min="19" max="19" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1343,231 +1525,231 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    <row r="8" spans="1:19" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44651</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="M8" s="5">
+        <v>44562</v>
+      </c>
+      <c r="N8" s="5">
+        <v>44651</v>
+      </c>
+      <c r="O8" s="13">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="Q8" s="5">
+        <v>44659</v>
+      </c>
+      <c r="R8" s="5">
+        <v>44659</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44651</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="5">
+        <v>44562</v>
+      </c>
+      <c r="N9" s="5">
+        <v>44651</v>
+      </c>
+      <c r="O9" s="13">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="M8" s="4">
-        <v>44470</v>
-      </c>
-      <c r="N8" s="4">
-        <v>44561</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="Q9" s="5">
+        <v>44659</v>
+      </c>
+      <c r="R9" s="5">
+        <v>44659</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44651</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="M10" s="5">
+        <v>44562</v>
+      </c>
+      <c r="N10" s="5">
+        <v>44651</v>
+      </c>
+      <c r="O10" s="13">
         <v>1</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>44659</v>
+      </c>
+      <c r="R10" s="5">
+        <v>44659</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44651</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="Q8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="R8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="M9" s="4">
-        <v>44470</v>
-      </c>
-      <c r="N9" s="4">
-        <v>44561</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="H11" s="14"/>
+      <c r="I11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="M11" s="5">
+        <v>44562</v>
+      </c>
+      <c r="N11" s="5">
+        <v>44651</v>
+      </c>
+      <c r="O11" s="13">
         <v>1</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>44571</v>
-      </c>
-      <c r="R9" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="M10" s="4">
-        <v>44470</v>
-      </c>
-      <c r="N10" s="4">
-        <v>44561</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>44571</v>
-      </c>
-      <c r="R10" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44470</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="M11" s="4">
-        <v>44470</v>
-      </c>
-      <c r="N11" s="4">
-        <v>44561</v>
-      </c>
-      <c r="O11" s="3">
-        <v>1</v>
-      </c>
       <c r="P11" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>44571</v>
-      </c>
-      <c r="R11" s="4">
-        <v>44571</v>
-      </c>
-      <c r="S11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>44659</v>
+      </c>
+      <c r="R11" s="5">
+        <v>44659</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>222</v>
       </c>
     </row>
@@ -1590,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="S3" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,54 +2000,54 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="O4" s="7">
         <v>83</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7">
         <v>13</v>
@@ -1877,18 +2059,18 @@
         <v>43830</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G201">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G201">
       <formula1>Hidden_1_Tabla_3954246</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K201">
@@ -1897,9 +2079,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R201">
       <formula1>Hidden_3_Tabla_39542417</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+      <formula1>diciembre</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -612,6 +612,54 @@
     <t>Subdirección de Calidad (UPP)</t>
   </si>
   <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
+  </si>
+  <si>
+    <t>Que la comunidad universitaria cuente con un medio de comunicación, donde exponga sus quejas y sugerencias sobre el desempeño de los procesos de la universidad, incluyendo a los funcionarios públicos e infraestructura.</t>
+  </si>
+  <si>
+    <t>Institucional</t>
+  </si>
+  <si>
+    <t>Espacios de atención ciudadana mediante redes sociales Facebook para atender sus quejas o sugerencias</t>
+  </si>
+  <si>
+    <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
+  </si>
+  <si>
+    <t>Mediante Redes Sociales Facebook</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Espacios de atención ciudadana mediante un correo electrónico para atender sus quejas o sugerencias</t>
+  </si>
+  <si>
+    <t>Mediante un correo electrónico</t>
+  </si>
+  <si>
+    <t>Buzón de quejas y sugerencias</t>
+  </si>
+  <si>
+    <t>Realizar su queja o sugerencia en papel y depositarla en los buzones correspondientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escrito en Buzón </t>
+  </si>
+  <si>
+    <t>Llamada telefónica</t>
+  </si>
+  <si>
+    <t>Espacios de comunicación de los funcionarios públicos y la ciudadania atender sus dudas y comentarios o sugerencias.</t>
+  </si>
+  <si>
+    <t>Mediante una llamada telefónica</t>
+  </si>
+  <si>
     <t>Ma. del Carmen</t>
   </si>
   <si>
@@ -648,55 +696,7 @@
     <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
-  </si>
-  <si>
-    <t>Que la comunidad universitaria cuente con un medio de comunicación, donde exponga sus quejas y sugerencias sobre el desempeño de los procesos de la universidad, incluyendo a los funcionarios públicos e infraestructura.</t>
-  </si>
-  <si>
-    <t>Institucional</t>
-  </si>
-  <si>
-    <t>Espacios de atención ciudadana mediante redes sociales Facebook para atender sus quejas o sugerencias</t>
-  </si>
-  <si>
-    <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
-  </si>
-  <si>
-    <t>Mediante Redes Sociales Facebook</t>
-  </si>
-  <si>
-    <t>Correo electrónico</t>
-  </si>
-  <si>
-    <t>Espacios de atención ciudadana mediante un correo electrónico para atender sus quejas o sugerencias</t>
-  </si>
-  <si>
-    <t>Mediante un correo electrónico</t>
-  </si>
-  <si>
-    <t>Buzón de quejas y sugerencias</t>
-  </si>
-  <si>
-    <t>Realizar su queja o sugerencia en papel y depositarla en los buzones correspondientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escrito en Buzón </t>
-  </si>
-  <si>
-    <t>Llamada telefónica</t>
-  </si>
-  <si>
-    <t>Espacios de comunicación de los funcionarios públicos y la ciudadania atender sus dudas y comentarios o sugerencias.</t>
-  </si>
-  <si>
-    <t>Mediante una llamada telefónica</t>
-  </si>
-  <si>
-    <t>Los mecanismos de participación ciudadana son permanentes pór lo que no se requiere convocatoria</t>
+    <t>Los criterios e hipervínculos que se encuentran en blanco es porque no los requiere los mecanismos de participación ciudadana ya que son permanentes.</t>
   </si>
 </sst>
 </file>
@@ -787,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -795,7 +795,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -805,25 +804,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,39 +1012,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,7 +1079,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1116,142 +1123,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -1259,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,12 +1300,12 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.28515625" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
     <col min="11" max="11" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -1283,7 +1314,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29" customWidth="1"/>
+    <col min="19" max="19" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1292,38 +1323,38 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1444,27 +1475,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1525,231 +1556,215 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="B8" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>44753</v>
+      </c>
+      <c r="R8" s="4">
+        <v>44753</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44742</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>44753</v>
+      </c>
+      <c r="R9" s="4">
+        <v>44753</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44742</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="L10" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>44753</v>
+      </c>
+      <c r="R10" s="4">
+        <v>44753</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="4">
+        <v>44652</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44742</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="E11" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="J11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="M8" s="5">
-        <v>44562</v>
-      </c>
-      <c r="N8" s="5">
-        <v>44651</v>
-      </c>
-      <c r="O8" s="13">
+      <c r="L11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7">
         <v>1</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="Q8" s="5">
-        <v>44659</v>
-      </c>
-      <c r="R8" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="162" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44651</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="M9" s="5">
-        <v>44562</v>
-      </c>
-      <c r="N9" s="5">
-        <v>44651</v>
-      </c>
-      <c r="O9" s="13">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>44659</v>
-      </c>
-      <c r="R9" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44651</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="M10" s="5">
-        <v>44562</v>
-      </c>
-      <c r="N10" s="5">
-        <v>44651</v>
-      </c>
-      <c r="O10" s="13">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>44659</v>
-      </c>
-      <c r="R10" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44651</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="M11" s="5">
-        <v>44562</v>
-      </c>
-      <c r="N11" s="5">
-        <v>44651</v>
-      </c>
-      <c r="O11" s="13">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>44659</v>
-      </c>
-      <c r="R11" s="5">
-        <v>44659</v>
-      </c>
-      <c r="S11" s="11" t="s">
+      <c r="Q11" s="4">
+        <v>44753</v>
+      </c>
+      <c r="R11" s="4">
+        <v>44753</v>
+      </c>
+      <c r="S11" s="8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -1764,7 +1779,7 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1772,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView topLeftCell="S3" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,83 +2019,83 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="H4" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="L4" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4" s="10">
         <v>8</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="O4" s="7">
+      <c r="N4" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="O4" s="10">
         <v>83</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="P4" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="10">
         <v>13</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="10">
         <v>43830</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>205</v>
+      <c r="T4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+      <formula1>diciembre</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G162">
       <formula1>Hidden_1_Tabla_3954246</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K162">
       <formula1>Hidden_2_Tabla_39542410</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R162">
       <formula1>Hidden_3_Tabla_39542417</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
-      <formula1>diciembre</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2091,7 +2106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72590774-25C9-427D-B865-28082FBA3C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -702,7 +708,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1044,7 +1050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1077,9 +1083,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1112,6 +1135,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1287,11 +1327,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,15 +1596,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="4">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>194</v>
@@ -1600,24 +1640,24 @@
         <v>193</v>
       </c>
       <c r="Q8" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="R8" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="S8" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2022</v>
       </c>
       <c r="B9" s="4">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C9" s="4">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>201</v>
@@ -1653,24 +1693,24 @@
         <v>193</v>
       </c>
       <c r="Q9" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="R9" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2022</v>
       </c>
       <c r="B10" s="4">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C10" s="4">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>204</v>
@@ -1706,24 +1746,24 @@
         <v>193</v>
       </c>
       <c r="Q10" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="R10" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="S10" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2022</v>
       </c>
       <c r="B11" s="4">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C11" s="4">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>207</v>
@@ -1759,10 +1799,10 @@
         <v>193</v>
       </c>
       <c r="Q11" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="R11" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>222</v>
@@ -1784,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -2085,16 +2125,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>diciembre</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G162">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G162" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Hidden_1_Tabla_3954246</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K162">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K162" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Hidden_2_Tabla_39542410</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R162">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R162" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Hidden_3_Tabla_39542417</formula1>
     </dataValidation>
   </dataValidations>
@@ -2103,7 +2143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2248,7 +2288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2466,7 +2506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72590774-25C9-427D-B865-28082FBA3C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FBD8D4-635E-461E-8415-6758499BA0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,7 @@
     <sheet name="Hidden_2_Tabla_395424" sheetId="4" r:id="rId4"/>
     <sheet name="Hidden_3_Tabla_395424" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="diciembre">[1]Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_1_Tabla_3954246">Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
     <definedName name="Hidden_2_Tabla_39542410">Hidden_2_Tabla_395424!$A$1:$A$41</definedName>
     <definedName name="Hidden_3_Tabla_39542417">Hidden_3_Tabla_395424!$A$1:$A$32</definedName>
@@ -666,13 +662,16 @@
     <t>Mediante una llamada telefónica</t>
   </si>
   <si>
+    <t>Los criterios e hipervínculos que se encuentran en blanco es porque no los requiere los mecanismos de participación ciudadana ya que son permanentes.</t>
+  </si>
+  <si>
     <t>Ma. del Carmen</t>
   </si>
   <si>
     <t>Rivera</t>
   </si>
   <si>
-    <t xml:space="preserve"> Madrigal</t>
+    <t> Madrigal</t>
   </si>
   <si>
     <t>calidad@upp.edu.mx</t>
@@ -687,7 +686,7 @@
     <t>Rancho Luna</t>
   </si>
   <si>
-    <t>Rancho Luna,  Ex Hda. Sta Barbara</t>
+    <t>Rancho Luna,  Ex Hda. Sta Barbara</t>
   </si>
   <si>
     <t>Zempoala</t>
@@ -700,9 +699,6 @@
   </si>
   <si>
     <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
-  </si>
-  <si>
-    <t>Los criterios e hipervínculos que se encuentran en blanco es porque no los requiere los mecanismos de participación ciudadana ya que son permanentes.</t>
   </si>
 </sst>
 </file>
@@ -755,7 +751,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -789,11 +785,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -807,8 +816,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -816,27 +828,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,158 +861,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Reporte de Formatos"/>
-      <sheetName val="Tabla_395424"/>
-      <sheetName val="Hidden_1_Tabla_395424"/>
-      <sheetName val="Hidden_2_Tabla_395424"/>
-      <sheetName val="Hidden_3_Tabla_395424"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Carretera</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Privada</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Eje vial</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Circunvalación</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Brecha</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Diagonal</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Calle</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Corredor</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Circuito</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Pasaje</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Vereda</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Calzada</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Viaducto</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Prolongación</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Boulevard</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Peatonal</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Retorno</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Camino</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Callejón</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Cerrada</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Ampliación</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Continuación</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Terracería</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Andador</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Periférico</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Avenida</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1330,22 +1186,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.28515625" customWidth="1"/>
-    <col min="6" max="6" width="61.140625" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -1354,7 +1210,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.85546875" customWidth="1"/>
+    <col min="19" max="19" width="66.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1363,33 +1219,33 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="14" t="s">
         <v>6</v>
       </c>
@@ -1515,27 +1371,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1596,216 +1452,216 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="4">
-        <v>44834</v>
-      </c>
-      <c r="D8" s="9" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>194</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="7">
+      <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="9" t="s">
         <v>193</v>
       </c>
       <c r="Q8" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="R8" s="4">
-        <v>44844</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+        <v>44936</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2022</v>
       </c>
       <c r="B9" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C9" s="4">
-        <v>44834</v>
-      </c>
-      <c r="D9" s="9" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="7">
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="8">
         <v>1</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="9" t="s">
         <v>193</v>
       </c>
       <c r="Q9" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="R9" s="4">
-        <v>44844</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+        <v>44936</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2022</v>
       </c>
       <c r="B10" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C10" s="4">
-        <v>44834</v>
-      </c>
-      <c r="D10" s="9" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="7">
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="8">
         <v>1</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="9" t="s">
         <v>193</v>
       </c>
       <c r="Q10" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="R10" s="4">
-        <v>44844</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+        <v>44936</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2022</v>
       </c>
       <c r="B11" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C11" s="4">
-        <v>44834</v>
-      </c>
-      <c r="D11" s="9" t="s">
+        <v>44926</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="7">
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="8">
         <v>1</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="9" t="s">
         <v>193</v>
       </c>
       <c r="Q11" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="R11" s="4">
-        <v>44844</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>222</v>
+        <v>44936</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1675,6 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1828,7 +1683,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,89 +1911,87 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" s="10" t="s">
+      <c r="I4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="M4" s="10">
+      <c r="L4" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" s="9">
         <v>8</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="O4" s="10">
+      <c r="N4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="9">
         <v>83</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4" s="10">
+      <c r="P4" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q4" s="9">
         <v>13</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <v>43830</v>
       </c>
-      <c r="T4" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="U4" s="10" t="s">
+      <c r="T4" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="U4" s="9" t="s">
         <v>221</v>
       </c>
+      <c r="V4" s="9" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>diciembre</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G162" xr:uid="{00000000-0002-0000-0100-000001000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G201" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Hidden_1_Tabla_3954246</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K4:K162" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K5:K201" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Hidden_2_Tabla_39542410</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R162" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R5:R201" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Hidden_3_Tabla_39542417</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2146,9 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FBD8D4-635E-461E-8415-6758499BA0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="221">
   <si>
     <t>46671</t>
   </si>
@@ -611,12 +610,6 @@
     <t>Baja California</t>
   </si>
   <si>
-    <t>Subdirección de Calidad (UPP)</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
     <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
   </si>
   <si>
@@ -626,15 +619,9 @@
     <t>Institucional</t>
   </si>
   <si>
-    <t>Espacios de atención ciudadana mediante redes sociales Facebook para atender sus quejas o sugerencias</t>
-  </si>
-  <si>
     <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
   </si>
   <si>
-    <t>Mediante Redes Sociales Facebook</t>
-  </si>
-  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
@@ -653,30 +640,15 @@
     <t xml:space="preserve">Escrito en Buzón </t>
   </si>
   <si>
-    <t>Llamada telefónica</t>
-  </si>
-  <si>
     <t>Espacios de comunicación de los funcionarios públicos y la ciudadania atender sus dudas y comentarios o sugerencias.</t>
   </si>
   <si>
-    <t>Mediante una llamada telefónica</t>
+    <t>Departamento de Calidad (UPP)</t>
   </si>
   <si>
     <t>Los criterios e hipervínculos que se encuentran en blanco es porque no los requiere los mecanismos de participación ciudadana ya que son permanentes.</t>
   </si>
   <si>
-    <t>Ma. del Carmen</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t> Madrigal</t>
-  </si>
-  <si>
-    <t>calidad@upp.edu.mx</t>
-  </si>
-  <si>
     <t>Sin calle</t>
   </si>
   <si>
@@ -699,13 +671,34 @@
   </si>
   <si>
     <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
+  </si>
+  <si>
+    <t>Jesús Eduardo</t>
+  </si>
+  <si>
+    <t>Juarico</t>
+  </si>
+  <si>
+    <t>Guaso</t>
+  </si>
+  <si>
+    <t>sgc@upp.edu.mx</t>
+  </si>
+  <si>
+    <t>Atención directa</t>
+  </si>
+  <si>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -731,6 +724,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -799,10 +800,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -832,6 +834,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -843,11 +851,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -939,23 +945,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -991,23 +980,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1183,25 +1155,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD96"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
-    <col min="6" max="6" width="52" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="106.28515625" customWidth="1"/>
+    <col min="6" max="6" width="66.85546875" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" customWidth="1"/>
     <col min="11" max="11" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -1210,7 +1182,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="66.5703125" customWidth="1"/>
+    <col min="19" max="19" width="65.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1219,38 +1191,38 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1371,27 +1343,27 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:19" ht="39" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1452,93 +1424,93 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="4">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
         <v>198</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="8">
         <v>1</v>
       </c>
       <c r="P8" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>45026</v>
+      </c>
+      <c r="R8" s="4">
+        <v>45026</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44927</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45016</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="Q8" s="4">
-        <v>44936</v>
-      </c>
-      <c r="R8" s="4">
-        <v>44936</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1546,52 +1518,52 @@
         <v>1</v>
       </c>
       <c r="P9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>45026</v>
+      </c>
+      <c r="R9" s="4">
+        <v>45026</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="4">
+        <v>44927</v>
+      </c>
+      <c r="C10" s="4">
+        <v>45016</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="Q9" s="4">
-        <v>44936</v>
-      </c>
-      <c r="R9" s="4">
-        <v>44936</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -1599,69 +1571,16 @@
         <v>1</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="R10" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>44936</v>
-      </c>
-      <c r="R11" s="4">
-        <v>44936</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1679,11 +1598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,53 +1830,53 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>97</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>144</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M4" s="9">
         <v>8</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O4" s="9">
         <v>83</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q4" s="9">
         <v>13</v>
@@ -1969,37 +1888,39 @@
         <v>43830</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G201" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G201">
       <formula1>Hidden_1_Tabla_3954246</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K5:K201" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K5:K201">
       <formula1>Hidden_2_Tabla_39542410</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R5:R201" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R5:R201">
       <formula1>Hidden_3_Tabla_39542417</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2139,7 +2060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2357,10 +2278,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/xlsx/a69_f37_aUPPachuca.xlsx
+++ b/xlsx/a69_f37_aUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D3C253-DDB2-426C-8E90-67051C621A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -17,18 +18,20 @@
     <sheet name="Hidden_1_Tabla_395424" sheetId="3" r:id="rId3"/>
     <sheet name="Hidden_2_Tabla_395424" sheetId="4" r:id="rId4"/>
     <sheet name="Hidden_3_Tabla_395424" sheetId="5" r:id="rId5"/>
+    <sheet name="Hidden_4_Tabla_395424" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Hidden_1_Tabla_3954246">Hidden_1_Tabla_395424!$A$1:$A$26</definedName>
-    <definedName name="Hidden_2_Tabla_39542410">Hidden_2_Tabla_395424!$A$1:$A$41</definedName>
-    <definedName name="Hidden_3_Tabla_39542417">Hidden_3_Tabla_395424!$A$1:$A$32</definedName>
+    <definedName name="Hidden_1_Tabla_3954245">Hidden_1_Tabla_395424!$A$1:$A$2</definedName>
+    <definedName name="Hidden_2_Tabla_3954247">Hidden_2_Tabla_395424!$A$1:$A$26</definedName>
+    <definedName name="Hidden_3_Tabla_39542411">Hidden_3_Tabla_395424!$A$1:$A$41</definedName>
+    <definedName name="Hidden_4_Tabla_39542418">Hidden_4_Tabla_395424!$A$1:$A$32</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="226">
   <si>
     <t>46671</t>
   </si>
@@ -205,6 +208,9 @@
     <t>51219</t>
   </si>
   <si>
+    <t>77171</t>
+  </si>
+  <si>
     <t>51220</t>
   </si>
   <si>
@@ -262,13 +268,16 @@
     <t xml:space="preserve">Nombre del(as) área(s) que gestiona el mecanismo de participación </t>
   </si>
   <si>
-    <t>Nombre(s) del Servidor Público de contacto</t>
-  </si>
-  <si>
-    <t>Primer apellido del servidor público de contacto</t>
-  </si>
-  <si>
-    <t>Segundo apellido del servidor público de contacto</t>
+    <t>Nombre(s) del/la Servidor(a) Público(a) de contacto</t>
+  </si>
+  <si>
+    <t>Primer apellido del/la servidor(a) público(a) de contacto</t>
+  </si>
+  <si>
+    <t>Segundo apellido del/la servidor(a) público(a) de contacto</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
   </si>
   <si>
     <t>Correo electrónico oficial</t>
@@ -322,6 +331,12 @@
     <t>Horario y días de atención</t>
   </si>
   <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
     <t>Carretera</t>
   </si>
   <si>
@@ -610,45 +625,66 @@
     <t>Baja California</t>
   </si>
   <si>
+    <t>Departamento de Calidad (UPP)</t>
+  </si>
+  <si>
+    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
+  </si>
+  <si>
+    <t>Que la comunidad universitaria cuente con un medio de comunicación, donde exponga sus quejas y sugerencias sobre el desempeño de los procesos de la universidad, incluyendo a los funcionarios públicos e infraestructura.</t>
+  </si>
+  <si>
+    <t>Institucional</t>
+  </si>
+  <si>
+    <t>Espacios de atención ciudadana mediante un correo electrónico para atender sus quejas o sugerencias</t>
+  </si>
+  <si>
+    <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
+  </si>
+  <si>
+    <t>Mediante un correo electrónico</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
     <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
   </si>
   <si>
-    <t>Que la comunidad universitaria cuente con un medio de comunicación, donde exponga sus quejas y sugerencias sobre el desempeño de los procesos de la universidad, incluyendo a los funcionarios públicos e infraestructura.</t>
-  </si>
-  <si>
-    <t>Institucional</t>
-  </si>
-  <si>
-    <t>Horarios y días habiles como se marca en los horarios y días de atención</t>
-  </si>
-  <si>
-    <t>Correo electrónico</t>
-  </si>
-  <si>
-    <t>Espacios de atención ciudadana mediante un correo electrónico para atender sus quejas o sugerencias</t>
-  </si>
-  <si>
-    <t>Mediante un correo electrónico</t>
+    <t>Realizar su queja o sugerencia en papel y depositarla en los buzones correspondientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escrito en Buzón </t>
   </si>
   <si>
     <t>Buzón de quejas y sugerencias</t>
   </si>
   <si>
-    <t>Realizar su queja o sugerencia en papel y depositarla en los buzones correspondientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escrito en Buzón </t>
-  </si>
-  <si>
     <t>Espacios de comunicación de los funcionarios públicos y la ciudadania atender sus dudas y comentarios o sugerencias.</t>
   </si>
   <si>
-    <t>Departamento de Calidad (UPP)</t>
+    <t>Personal</t>
+  </si>
+  <si>
+    <t>Atención directa</t>
   </si>
   <si>
     <t>Los criterios e hipervínculos que se encuentran en blanco es porque no los requiere los mecanismos de participación ciudadana ya que son permanentes.</t>
   </si>
   <si>
+    <t>Jesús Eduardo</t>
+  </si>
+  <si>
+    <t>Juarico</t>
+  </si>
+  <si>
+    <t>Guaso</t>
+  </si>
+  <si>
+    <t>sgc@upp.edu.mx</t>
+  </si>
+  <si>
     <t>Sin calle</t>
   </si>
   <si>
@@ -673,32 +709,14 @@
     <t>Lunes a viernes de 9:00 a.m. a 16:00 hrs.</t>
   </si>
   <si>
-    <t>Jesús Eduardo</t>
-  </si>
-  <si>
-    <t>Juarico</t>
-  </si>
-  <si>
-    <t>Guaso</t>
-  </si>
-  <si>
-    <t>sgc@upp.edu.mx</t>
-  </si>
-  <si>
-    <t>Atención directa</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Programa de Fortalecimiento del Sistema Estatal de Control y Evaluacion de la Gestion Pública, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana, y colaboracion en materia de Transparencia y Combate a la Corrupcion; sección II Del Sistema Nacional de Quejas y Sugerencias y Atención Ciudadana</t>
+    <t>Espacios de atención ciudadana mediante un buzon físico para atender sus quejas o sugerencias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -711,13 +729,18 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -734,7 +757,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +774,14 @@
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -775,36 +804,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -812,14 +817,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
@@ -830,14 +836,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,6 +959,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -980,6 +1011,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1155,11 +1203,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,13 +1215,13 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
-    <col min="5" max="5" width="106.28515625" customWidth="1"/>
-    <col min="6" max="6" width="66.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
@@ -1182,7 +1230,7 @@
     <col min="16" max="16" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="65.28515625" customWidth="1"/>
+    <col min="19" max="19" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -1191,38 +1239,38 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:19" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+    </row>
+    <row r="3" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1343,29 +1391,29 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" ht="39" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1424,163 +1472,163 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:19" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2023</v>
       </c>
-      <c r="B8" s="4">
-        <v>44927</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="9">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="Q8" s="5">
+        <v>45117</v>
+      </c>
+      <c r="R8" s="5">
+        <v>45117</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="G9" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="8">
+      <c r="Q9" s="5">
+        <v>45117</v>
+      </c>
+      <c r="R9" s="5">
+        <v>45117</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45107</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="9">
         <v>1</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>45026</v>
-      </c>
-      <c r="R8" s="4">
-        <v>45026</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44927</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45016</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>45026</v>
-      </c>
-      <c r="R9" s="4">
-        <v>45026</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44927</v>
-      </c>
-      <c r="C10" s="4">
-        <v>45016</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>45026</v>
-      </c>
-      <c r="R10" s="4">
-        <v>45026</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>205</v>
+      <c r="P10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>45117</v>
+      </c>
+      <c r="R10" s="5">
+        <v>45117</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1598,40 +1646,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -1645,46 +1694,46 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>53</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
       </c>
       <c r="T1" t="s">
         <v>7</v>
@@ -1693,10 +1742,13 @@
         <v>7</v>
       </c>
       <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>54</v>
       </c>
@@ -1760,298 +1812,188 @@
       <c r="V2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="N4" s="13">
+        <v>8</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="P4" s="13">
         <v>83</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="M4" s="9">
-        <v>8</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="O4" s="9">
-        <v>83</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="R4" s="13">
         <v>13</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="S4" s="9">
+      <c r="S4" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="T4" s="13">
         <v>43830</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>213</v>
+      <c r="U4" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G5:G201">
-      <formula1>Hidden_1_Tabla_3954246</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F5:F201" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>Hidden_1_Tabla_3954245</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K5:K201">
-      <formula1>Hidden_2_Tabla_39542410</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H201" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>Hidden_2_Tabla_3954247</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R5:R201">
-      <formula1>Hidden_3_Tabla_39542417</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L5:L201" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <formula1>Hidden_3_Tabla_39542411</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S5:S201" xr:uid="{00000000-0002-0000-0100-000003000000}">
+      <formula1>Hidden_4_Tabla_39542418</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2002,150 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2069,207 +2154,207 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2277,174 +2362,172 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
